--- a/Modulo5/src/out/info_estados/Utah.xlsx
+++ b/Modulo5/src/out/info_estados/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="54">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>U</t>
@@ -605,14 +611,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>49001</v>
@@ -649,14 +655,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>49001</v>
@@ -693,14 +699,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="M4">
         <v>49001</v>
@@ -737,14 +743,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M5">
         <v>49001</v>
@@ -781,14 +787,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="M6">
         <v>49001</v>
@@ -825,14 +831,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="M7">
         <v>49003</v>
@@ -869,14 +875,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M8">
         <v>49003</v>
@@ -913,14 +919,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>521</v>
       </c>
       <c r="M9">
         <v>49003</v>
@@ -957,14 +963,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="M10">
         <v>49003</v>
@@ -1001,14 +1007,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3315</v>
       </c>
       <c r="M11">
         <v>49003</v>
@@ -1045,14 +1051,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2907</v>
       </c>
       <c r="M12">
         <v>49005</v>
@@ -1089,14 +1095,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>51</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>631</v>
       </c>
       <c r="M13">
         <v>49005</v>
@@ -1133,14 +1139,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>1050</v>
       </c>
       <c r="M14">
         <v>49005</v>
@@ -1177,14 +1183,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1893</v>
       </c>
       <c r="M15">
         <v>49005</v>
@@ -1221,14 +1227,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>7173</v>
       </c>
       <c r="M16">
         <v>49005</v>
@@ -1265,14 +1271,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="M17">
         <v>49007</v>
@@ -1309,14 +1315,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>51</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="M18">
         <v>49007</v>
@@ -1353,14 +1359,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>52</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>294</v>
       </c>
       <c r="M19">
         <v>49007</v>
@@ -1397,14 +1403,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M20">
         <v>49007</v>
@@ -1441,14 +1447,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M21">
         <v>49007</v>
@@ -1485,14 +1491,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>51</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M22">
         <v>49009</v>
@@ -1529,14 +1535,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>51</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>49009</v>
@@ -1573,14 +1579,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M24">
         <v>49009</v>
@@ -1617,14 +1623,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M25">
         <v>49009</v>
@@ -1661,14 +1667,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M26">
         <v>49009</v>
@@ -1705,14 +1711,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3564</v>
       </c>
       <c r="M27">
         <v>49011</v>
@@ -1749,14 +1755,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>748</v>
       </c>
       <c r="M28">
         <v>49011</v>
@@ -1793,14 +1799,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2903</v>
       </c>
       <c r="M29">
         <v>49011</v>
@@ -1837,14 +1843,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>5215</v>
       </c>
       <c r="M30">
         <v>49011</v>
@@ -1881,14 +1887,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>52</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>17529</v>
       </c>
       <c r="M31">
         <v>49011</v>
@@ -1925,14 +1931,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="M32">
         <v>49013</v>
@@ -1969,14 +1975,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M33">
         <v>49013</v>
@@ -2013,14 +2019,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>52</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="M34">
         <v>49013</v>
@@ -2057,14 +2063,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M35">
         <v>49013</v>
@@ -2101,14 +2107,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="M36">
         <v>49013</v>
@@ -2145,14 +2151,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>51</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="M37">
         <v>49015</v>
@@ -2189,14 +2195,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>51</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M38">
         <v>49015</v>
@@ -2233,14 +2239,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M39">
         <v>49015</v>
@@ -2277,14 +2283,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M40">
         <v>49015</v>
@@ -2321,14 +2327,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="M41">
         <v>49015</v>
@@ -2365,14 +2371,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M42">
         <v>49017</v>
@@ -2409,14 +2415,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>51</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M43">
         <v>49017</v>
@@ -2453,14 +2459,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M44">
         <v>49017</v>
@@ -2497,14 +2503,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M45">
         <v>49017</v>
@@ -2541,14 +2547,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>52</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="M46">
         <v>49017</v>
@@ -2585,14 +2591,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>51</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>637</v>
       </c>
       <c r="M47">
         <v>49019</v>
@@ -2629,14 +2635,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>51</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M48">
         <v>49019</v>
@@ -2673,14 +2679,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>52</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M49">
         <v>49019</v>
@@ -2717,14 +2723,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>52</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M50">
         <v>49019</v>
@@ -2761,14 +2767,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>52</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="M51">
         <v>49019</v>
@@ -2805,14 +2811,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>640</v>
       </c>
       <c r="M52">
         <v>49021</v>
@@ -2849,14 +2855,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="M53">
         <v>49021</v>
@@ -2893,14 +2899,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>721</v>
       </c>
       <c r="M54">
         <v>49021</v>
@@ -2937,14 +2943,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>52</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="M55">
         <v>49021</v>
@@ -2981,14 +2987,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>52</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>2288</v>
       </c>
       <c r="M56">
         <v>49021</v>
@@ -3025,14 +3031,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>51</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M57">
         <v>49023</v>
@@ -3069,14 +3075,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>51</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M58">
         <v>49023</v>
@@ -3113,14 +3119,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>52</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="M59">
         <v>49023</v>
@@ -3157,14 +3163,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>52</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M60">
         <v>49023</v>
@@ -3201,14 +3207,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>52</v>
       </c>
       <c r="K61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>648</v>
       </c>
       <c r="M61">
         <v>49023</v>
@@ -3245,14 +3251,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>51</v>
       </c>
       <c r="K62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="M62">
         <v>49025</v>
@@ -3289,14 +3295,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>51</v>
       </c>
       <c r="K63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63">
         <v>51</v>
-      </c>
-      <c r="L63">
-        <v>4</v>
       </c>
       <c r="M63">
         <v>49025</v>
@@ -3333,14 +3339,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>52</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M64">
         <v>49025</v>
@@ -3377,14 +3383,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>52</v>
       </c>
       <c r="K65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M65">
         <v>49025</v>
@@ -3421,14 +3427,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>52</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M66">
         <v>49025</v>
@@ -3465,14 +3471,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>51</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M67">
         <v>49027</v>
@@ -3509,14 +3515,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>51</v>
       </c>
       <c r="K68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M68">
         <v>49027</v>
@@ -3553,14 +3559,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>52</v>
       </c>
       <c r="K69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M69">
         <v>49027</v>
@@ -3597,14 +3603,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>52</v>
       </c>
       <c r="K70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="M70">
         <v>49027</v>
@@ -3641,14 +3647,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>52</v>
       </c>
       <c r="K71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>772</v>
       </c>
       <c r="M71">
         <v>49027</v>
@@ -3685,14 +3691,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>51</v>
       </c>
       <c r="K72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="M72">
         <v>49029</v>
@@ -3729,14 +3735,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>51</v>
       </c>
       <c r="K73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M73">
         <v>49029</v>
@@ -3773,14 +3779,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>52</v>
       </c>
       <c r="K74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M74">
         <v>49029</v>
@@ -3817,14 +3823,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>52</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M75">
         <v>49029</v>
@@ -3861,14 +3867,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>52</v>
       </c>
       <c r="K76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>840</v>
       </c>
       <c r="M76">
         <v>49029</v>
@@ -3905,14 +3911,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>51</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>49031</v>
@@ -3949,14 +3955,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>51</v>
       </c>
       <c r="K78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>49031</v>
@@ -3993,14 +3999,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>52</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M79">
         <v>49031</v>
@@ -4037,14 +4043,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>52</v>
       </c>
       <c r="K80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M80">
         <v>49031</v>
@@ -4081,14 +4087,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>52</v>
       </c>
       <c r="K81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M81">
         <v>49031</v>
@@ -4125,14 +4131,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>51</v>
       </c>
       <c r="K82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>49033</v>
@@ -4169,14 +4175,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>51</v>
       </c>
       <c r="K83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>49033</v>
@@ -4213,14 +4219,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>52</v>
       </c>
       <c r="K84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M84">
         <v>49033</v>
@@ -4257,14 +4263,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>52</v>
       </c>
       <c r="K85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M85">
         <v>49033</v>
@@ -4301,14 +4307,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>52</v>
       </c>
       <c r="K86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="M86">
         <v>49033</v>
@@ -4345,14 +4351,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>51</v>
       </c>
       <c r="K87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>35611</v>
       </c>
       <c r="M87">
         <v>49035</v>
@@ -4389,14 +4395,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>51</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>9432</v>
       </c>
       <c r="M88">
         <v>49035</v>
@@ -4433,14 +4439,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>6543</v>
       </c>
       <c r="M89">
         <v>49035</v>
@@ -4477,14 +4483,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>52</v>
       </c>
       <c r="K90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>9018</v>
       </c>
       <c r="M90">
         <v>49035</v>
@@ -4521,14 +4527,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>52</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>31165</v>
       </c>
       <c r="M91">
         <v>49035</v>
@@ -4565,14 +4571,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>51</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="M92">
         <v>49037</v>
@@ -4609,14 +4615,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>51</v>
       </c>
       <c r="K93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M93">
         <v>49037</v>
@@ -4653,14 +4659,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>52</v>
       </c>
       <c r="K94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M94">
         <v>49037</v>
@@ -4697,14 +4703,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>52</v>
       </c>
       <c r="K95" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M95">
         <v>49037</v>
@@ -4741,14 +4747,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="M96">
         <v>49037</v>
@@ -4785,14 +4791,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>51</v>
       </c>
       <c r="K97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="M97">
         <v>49039</v>
@@ -4829,14 +4835,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>51</v>
       </c>
       <c r="K98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M98">
         <v>49039</v>
@@ -4873,14 +4879,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>52</v>
       </c>
       <c r="K99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="M99">
         <v>49039</v>
@@ -4917,14 +4923,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="M100">
         <v>49039</v>
@@ -4961,14 +4967,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1283</v>
       </c>
       <c r="M101">
         <v>49039</v>
@@ -5005,14 +5011,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>51</v>
       </c>
       <c r="K102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M102">
         <v>49041</v>
@@ -5049,14 +5055,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>51</v>
       </c>
       <c r="K103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M103">
         <v>49041</v>
@@ -5093,14 +5099,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>52</v>
       </c>
       <c r="K104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="M104">
         <v>49041</v>
@@ -5137,14 +5143,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>52</v>
       </c>
       <c r="K105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="M105">
         <v>49041</v>
@@ -5181,14 +5187,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>52</v>
       </c>
       <c r="K106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>1011</v>
       </c>
       <c r="M106">
         <v>49041</v>
@@ -5225,14 +5231,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>51</v>
       </c>
       <c r="K107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1646</v>
       </c>
       <c r="M107">
         <v>49043</v>
@@ -5269,14 +5275,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>51</v>
       </c>
       <c r="K108" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>752</v>
       </c>
       <c r="M108">
         <v>49043</v>
@@ -5313,14 +5319,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>52</v>
       </c>
       <c r="K109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="M109">
         <v>49043</v>
@@ -5357,14 +5363,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>52</v>
       </c>
       <c r="K110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="M110">
         <v>49043</v>
@@ -5401,14 +5407,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>52</v>
       </c>
       <c r="K111" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>673</v>
       </c>
       <c r="M111">
         <v>49043</v>
@@ -5445,14 +5451,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>51</v>
       </c>
       <c r="K112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>987</v>
       </c>
       <c r="M112">
         <v>49045</v>
@@ -5489,14 +5495,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>51</v>
       </c>
       <c r="K113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="M113">
         <v>49045</v>
@@ -5533,14 +5539,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>52</v>
       </c>
       <c r="K114" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>519</v>
       </c>
       <c r="M114">
         <v>49045</v>
@@ -5577,14 +5583,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>52</v>
       </c>
       <c r="K115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="M115">
         <v>49045</v>
@@ -5621,14 +5627,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>52</v>
       </c>
       <c r="K116" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>2413</v>
       </c>
       <c r="M116">
         <v>49045</v>
@@ -5665,14 +5671,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>51</v>
       </c>
       <c r="K117" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="M117">
         <v>49047</v>
@@ -5709,14 +5715,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>51</v>
       </c>
       <c r="K118" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M118">
         <v>49047</v>
@@ -5753,14 +5759,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>52</v>
       </c>
       <c r="K119" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="M119">
         <v>49047</v>
@@ -5797,14 +5803,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>52</v>
       </c>
       <c r="K120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M120">
         <v>49047</v>
@@ -5841,14 +5847,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>52</v>
       </c>
       <c r="K121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>2145</v>
       </c>
       <c r="M121">
         <v>49047</v>
@@ -5885,14 +5891,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>51</v>
       </c>
       <c r="K122" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>6072</v>
       </c>
       <c r="M122">
         <v>49049</v>
@@ -5929,14 +5935,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>51</v>
       </c>
       <c r="K123" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>1012</v>
       </c>
       <c r="M123">
         <v>49049</v>
@@ -5973,14 +5979,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>52</v>
       </c>
       <c r="K124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3714</v>
       </c>
       <c r="M124">
         <v>49049</v>
@@ -6017,14 +6023,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>52</v>
       </c>
       <c r="K125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>6237</v>
       </c>
       <c r="M125">
         <v>49049</v>
@@ -6061,14 +6067,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>52</v>
       </c>
       <c r="K126" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>30638</v>
       </c>
       <c r="M126">
         <v>49049</v>
@@ -6105,14 +6111,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>51</v>
       </c>
       <c r="K127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="M127">
         <v>49051</v>
@@ -6149,14 +6155,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>51</v>
       </c>
       <c r="K128" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="M128">
         <v>49051</v>
@@ -6193,14 +6199,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>52</v>
       </c>
       <c r="K129" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="M129">
         <v>49051</v>
@@ -6237,14 +6243,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>52</v>
       </c>
       <c r="K130" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="M130">
         <v>49051</v>
@@ -6281,14 +6287,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>52</v>
       </c>
       <c r="K131" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>1530</v>
       </c>
       <c r="M131">
         <v>49051</v>
@@ -6325,14 +6331,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>51</v>
       </c>
       <c r="K132" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>1510</v>
       </c>
       <c r="M132">
         <v>49053</v>
@@ -6369,14 +6375,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>51</v>
       </c>
       <c r="K133" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="M133">
         <v>49053</v>
@@ -6413,14 +6419,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>52</v>
       </c>
       <c r="K134" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3091</v>
       </c>
       <c r="M134">
         <v>49053</v>
@@ -6457,14 +6463,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>52</v>
       </c>
       <c r="K135" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>1635</v>
       </c>
       <c r="M135">
         <v>49053</v>
@@ -6501,14 +6507,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>52</v>
       </c>
       <c r="K136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>7802</v>
       </c>
       <c r="M136">
         <v>49053</v>
@@ -6545,14 +6551,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>51</v>
       </c>
       <c r="K137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M137">
         <v>49055</v>
@@ -6589,14 +6595,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>51</v>
       </c>
       <c r="K138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M138">
         <v>49055</v>
@@ -6633,14 +6639,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>52</v>
       </c>
       <c r="K139" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M139">
         <v>49055</v>
@@ -6677,14 +6683,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>52</v>
       </c>
       <c r="K140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M140">
         <v>49055</v>
@@ -6721,14 +6727,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>52</v>
       </c>
       <c r="K141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M141">
         <v>49055</v>
@@ -6765,14 +6771,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>51</v>
       </c>
       <c r="K142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>5466</v>
       </c>
       <c r="M142">
         <v>49057</v>
@@ -6809,14 +6815,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>51</v>
       </c>
       <c r="K143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>1114</v>
       </c>
       <c r="M143">
         <v>49057</v>
@@ -6853,14 +6859,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>52</v>
       </c>
       <c r="K144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>1696</v>
       </c>
       <c r="M144">
         <v>49057</v>
@@ -6897,14 +6903,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>52</v>
       </c>
       <c r="K145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>1766</v>
       </c>
       <c r="M145">
         <v>49057</v>
@@ -6941,14 +6947,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>52</v>
       </c>
       <c r="K146" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>7059</v>
       </c>
       <c r="M146">
         <v>49057</v>
